--- a/excel_params/0.6_params.xlsx
+++ b/excel_params/0.6_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionI_double_peak\store_result_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C7AE3E-755E-4F5B-BA14-47901C885F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DDF0C-A19D-417D-B831-62F17ED63432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="分布参数" sheetId="1" r:id="rId1"/>
     <sheet name="均值" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>d</t>
   </si>
@@ -159,6 +165,10 @@
   </si>
   <si>
     <t>W11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kw/Kn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +583,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.2048324078813284</v>
       </c>
@@ -620,8 +633,12 @@
       <c r="O2" s="1">
         <v>1.5052329218188127</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <f>C2/F2</f>
+        <v>6.1252261858933466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.9265881763150365</v>
       </c>
@@ -667,8 +684,12 @@
       <c r="O3" s="1">
         <v>84.731133536575555</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q19" si="0">C3/F3</f>
+        <v>4.4544555237061445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.8207296712058012</v>
       </c>
@@ -714,8 +735,12 @@
       <c r="O4" s="1">
         <v>4.2533964185552104</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>4.8420664977802774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1.8207296712058012</v>
       </c>
@@ -764,8 +789,12 @@
       <c r="P5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9.4202527649543306</v>
       </c>
@@ -814,8 +843,12 @@
       <c r="P6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>3.0213686216440707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9.4202527649543306</v>
       </c>
@@ -864,8 +897,12 @@
       <c r="P7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8.165685550963337</v>
       </c>
@@ -914,8 +951,12 @@
       <c r="P8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>2.0555775527265299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3.1395517565678701</v>
       </c>
@@ -964,8 +1005,12 @@
       <c r="P9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.2048324078813284</v>
       </c>
@@ -1014,8 +1059,12 @@
       <c r="P10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>6.1252261858933466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.2048324078813284</v>
       </c>
@@ -1064,8 +1113,12 @@
       <c r="P11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>6.7495302214687865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8.608374535369709</v>
       </c>
@@ -1114,8 +1167,12 @@
       <c r="P12" s="1">
         <v>0.14280875177958166</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1.2091970258781004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7.70752126</v>
       </c>
@@ -1164,8 +1221,12 @@
       <c r="P13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>4.8315115232167241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7.7025668168494983</v>
       </c>
@@ -1214,8 +1275,12 @@
       <c r="P14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>4.5145023335431267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7.7004998779999996</v>
       </c>
@@ -1263,6 +1328,214 @@
       </c>
       <c r="P15">
         <v>0.20039332100000001</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>4.1713008053150054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.8254218637200017</v>
+      </c>
+      <c r="B16">
+        <v>31.24954890527</v>
+      </c>
+      <c r="C16">
+        <v>37.870684537167797</v>
+      </c>
+      <c r="D16">
+        <v>12.240083217040288</v>
+      </c>
+      <c r="E16">
+        <v>267.20999717952708</v>
+      </c>
+      <c r="F16">
+        <v>14.154983834922216</v>
+      </c>
+      <c r="G16">
+        <v>10.701191994422897</v>
+      </c>
+      <c r="H16">
+        <v>155.98642028791917</v>
+      </c>
+      <c r="I16">
+        <v>11.142503800580997</v>
+      </c>
+      <c r="J16">
+        <v>1.0024056564953012</v>
+      </c>
+      <c r="K16">
+        <v>39.067393838160797</v>
+      </c>
+      <c r="L16">
+        <v>17.391501142871792</v>
+      </c>
+      <c r="M16">
+        <v>0.3224021554503016</v>
+      </c>
+      <c r="N16">
+        <v>66.446976564342989</v>
+      </c>
+      <c r="O16">
+        <v>6.2251753705177384</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>2.6754311399307862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5.8015179849234775</v>
+      </c>
+      <c r="B17">
+        <v>35.039156646272673</v>
+      </c>
+      <c r="C17">
+        <v>38.119262103103914</v>
+      </c>
+      <c r="D17">
+        <v>12.306303029397281</v>
+      </c>
+      <c r="E17">
+        <v>268.77470932959136</v>
+      </c>
+      <c r="F17">
+        <v>13.706179692262594</v>
+      </c>
+      <c r="G17">
+        <v>10.655630293005684</v>
+      </c>
+      <c r="H17">
+        <v>155.48078033193167</v>
+      </c>
+      <c r="I17">
+        <v>11.059555262466839</v>
+      </c>
+      <c r="J17">
+        <v>0.96382606897892265</v>
+      </c>
+      <c r="K17">
+        <v>39.203900260554903</v>
+      </c>
+      <c r="L17">
+        <v>17.456286689041615</v>
+      </c>
+      <c r="M17">
+        <v>0.32228900462284066</v>
+      </c>
+      <c r="N17">
+        <v>97.587862530297627</v>
+      </c>
+      <c r="O17">
+        <v>7.2745061364978527</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>2.7811733801084615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5.7676789557395258</v>
+      </c>
+      <c r="B18">
+        <v>133.94171706193623</v>
+      </c>
+      <c r="C18">
+        <v>41.115922196891617</v>
+      </c>
+      <c r="D18">
+        <v>12.504394372998616</v>
+      </c>
+      <c r="E18">
+        <v>273.22135539507053</v>
+      </c>
+      <c r="F18">
+        <v>12.665268134743506</v>
+      </c>
+      <c r="G18">
+        <v>10.51264143351932</v>
+      </c>
+      <c r="H18">
+        <v>153.62063225859285</v>
+      </c>
+      <c r="I18">
+        <v>11.00195202938893</v>
+      </c>
+      <c r="J18">
+        <v>0.96432767366750127</v>
+      </c>
+      <c r="K18">
+        <v>39.295591271570267</v>
+      </c>
+      <c r="L18">
+        <v>17.350671068506848</v>
+      </c>
+      <c r="M18">
+        <v>0.32611705428332477</v>
+      </c>
+      <c r="N18">
+        <v>23.727094080224894</v>
+      </c>
+      <c r="O18">
+        <v>4.0985096874255866</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>3.2463522887527314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.7570925388629384</v>
+      </c>
+      <c r="B19">
+        <v>381.74010595777952</v>
+      </c>
+      <c r="C19">
+        <v>47.445019082139957</v>
+      </c>
+      <c r="D19">
+        <v>12.732151524018327</v>
+      </c>
+      <c r="E19">
+        <v>278.70217953431364</v>
+      </c>
+      <c r="F19">
+        <v>10.593799100891731</v>
+      </c>
+      <c r="G19">
+        <v>10.197019778947055</v>
+      </c>
+      <c r="H19">
+        <v>149.71909937532905</v>
+      </c>
+      <c r="I19">
+        <v>11.008046404387139</v>
+      </c>
+      <c r="J19">
+        <v>0.9675793144746605</v>
+      </c>
+      <c r="K19">
+        <v>39.480496030098713</v>
+      </c>
+      <c r="L19">
+        <v>17.259138586944186</v>
+      </c>
+      <c r="M19">
+        <v>0.33677452539223063</v>
+      </c>
+      <c r="N19">
+        <v>13.987058277123101</v>
+      </c>
+      <c r="O19">
+        <v>3.1079896647748484</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>4.4785651143928416</v>
       </c>
     </row>
   </sheetData>

--- a/excel_params/0.6_params.xlsx
+++ b/excel_params/0.6_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionI_double_peak\store_result_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DDF0C-A19D-417D-B831-62F17ED63432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4EF2ED-0DB1-44A2-AEEE-EC34925D03D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A10" sqref="A10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1536,6 +1536,56 @@
       <c r="Q19">
         <f t="shared" si="0"/>
         <v>4.4785651143928416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.638283419</v>
+      </c>
+      <c r="B20">
+        <v>20.98557534</v>
+      </c>
+      <c r="C20">
+        <v>36.28881852</v>
+      </c>
+      <c r="D20">
+        <v>37.271401490000002</v>
+      </c>
+      <c r="E20">
+        <v>22.101823159999999</v>
+      </c>
+      <c r="F20">
+        <v>17.61271777</v>
+      </c>
+      <c r="G20">
+        <v>35.390656880000002</v>
+      </c>
+      <c r="H20">
+        <v>14.494490280000001</v>
+      </c>
+      <c r="I20">
+        <v>13.414862769999999</v>
+      </c>
+      <c r="J20">
+        <v>1.3976609799999999</v>
+      </c>
+      <c r="K20">
+        <v>38.646566679999999</v>
+      </c>
+      <c r="L20">
+        <v>16.65278253</v>
+      </c>
+      <c r="M20">
+        <v>0.30847244699999998</v>
+      </c>
+      <c r="N20">
+        <v>108.41892729999999</v>
+      </c>
+      <c r="O20">
+        <v>32.453171320000003</v>
+      </c>
+      <c r="P20">
+        <v>0.14507968399999999</v>
       </c>
     </row>
   </sheetData>
